--- a/Buyer hub/Orders/Manual testcases/New order testcases.xlsx
+++ b/Buyer hub/Orders/Manual testcases/New order testcases.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24326"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Testcases one group\Buyer hub\Orders\Manual testcases\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\zm-buyerautomation\Buyer hub\Orders\Manual testcases\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69CC9720-F458-4151-B1C0-964AE35D1ED5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DA3C5DB-EF98-41AC-8F53-244F7A20C038}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="67">
   <si>
     <t>SL. No</t>
   </si>
@@ -489,6 +489,80 @@
       </rPr>
       <t xml:space="preserve"> then its show the Review order page on the screen </t>
     </r>
+  </si>
+  <si>
+    <t>Reason for disabling ordering currently showing as 'Currently unavailable' in supplier ,now new implementation as 3 options                                                     1.Payment outstanding                                                                 2.Order setting unverified                                                              3.Setting not Configured</t>
+  </si>
+  <si>
+    <t xml:space="preserve">In admin select supplier and manage settings if we select those options aand update then it gets displayed in the buyer </t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Click on the </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"New order-&gt;Payment outstanding</t>
+    </r>
+  </si>
+  <si>
+    <t>"Currently unavailable - payment outstanding"
+shown to those who have not settled their payment plan bill.</t>
+  </si>
+  <si>
+    <t>It displayed in payment outstanding</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Click on the </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">"New order-&gt;Order setting unverified </t>
+    </r>
+  </si>
+  <si>
+    <t>"Currently unavailable - order settings unverified" Shown to outlets who have not verified order settings for the selected supplier.</t>
+  </si>
+  <si>
+    <t>It displayed Order settings unverified</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Click on the </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"New order-&gt;Setting not Configured</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">"Currently unavailable - Setting not Configured               the message is just an info that another user from the outlet with permission has to verify the supplier settings first.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">It displayed Setting not Configured       </t>
   </si>
 </sst>
 </file>
@@ -590,7 +664,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -627,13 +701,23 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -915,10 +999,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G16"/>
+  <dimension ref="A1:G20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C9" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="A21" sqref="A21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1001,7 +1085,7 @@
       </c>
     </row>
     <row r="4" spans="1:7" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="17">
+      <c r="A4" s="16">
         <v>3</v>
       </c>
       <c r="B4" s="5" t="s">
@@ -1024,7 +1108,7 @@
       </c>
     </row>
     <row r="5" spans="1:7" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="17">
+      <c r="A5" s="16">
         <v>4</v>
       </c>
       <c r="B5" s="5" t="s">
@@ -1046,100 +1130,100 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="15">
+    <row r="6" spans="1:7" ht="108.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="18">
         <v>5</v>
       </c>
       <c r="B6" s="5" t="s">
         <v>21</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="D6" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="E6" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="F6" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="G6" s="12" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A7" s="15">
+        <v>48</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="F6" s="19" t="s">
+        <v>57</v>
+      </c>
+      <c r="G6" s="20" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="60.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="18">
         <v>6</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>21</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="D7" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="E7" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="F7" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="G7" s="12" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="16">
+        <v>48</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="F7" s="19" t="s">
+        <v>60</v>
+      </c>
+      <c r="G7" s="20" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="60.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="18">
         <v>7</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>21</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="D8" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="E8" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="F8" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="G8" s="14" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" ht="71.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="16">
+        <v>48</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="F8" s="19" t="s">
+        <v>63</v>
+      </c>
+      <c r="G8" s="20" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="87" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="18">
         <v>8</v>
       </c>
       <c r="B9" s="5" t="s">
         <v>21</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="D9" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="F9" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="G9" s="14" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" ht="57.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="16">
+        <v>48</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="E9" s="21" t="s">
+        <v>65</v>
+      </c>
+      <c r="F9" s="19" t="s">
+        <v>66</v>
+      </c>
+      <c r="G9" s="20" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="15">
         <v>9</v>
       </c>
       <c r="B10" s="5" t="s">
@@ -1149,20 +1233,20 @@
         <v>22</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>26</v>
+        <v>45</v>
       </c>
       <c r="F10" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="G10" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="G10" s="12" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A11" s="16">
+      <c r="A11" s="15">
         <v>10</v>
       </c>
       <c r="B11" s="5" t="s">
@@ -1172,20 +1256,20 @@
         <v>22</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>27</v>
+        <v>46</v>
       </c>
       <c r="F11" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="G11" s="14" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A12" s="16">
+        <v>23</v>
+      </c>
+      <c r="G11" s="12" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="17">
         <v>11</v>
       </c>
       <c r="B12" s="5" t="s">
@@ -1195,79 +1279,79 @@
         <v>22</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="F12" s="13" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="G12" s="14" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="39" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="16">
+    <row r="13" spans="1:7" ht="71.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="17">
         <v>12</v>
       </c>
-      <c r="B13" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="C13" s="11" t="s">
+      <c r="B13" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="F13" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="G13" s="14" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="57.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="17">
+        <v>13</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="F14" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="G14" s="14" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A15" s="17">
         <v>14</v>
       </c>
-      <c r="D13" s="13" t="s">
-        <v>43</v>
-      </c>
-      <c r="E13" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="F13" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="G13" s="14" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" ht="67.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="16">
-        <v>13</v>
-      </c>
-      <c r="B14" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="C14" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="D14" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="E14" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="F14" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="G14" s="14" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="16">
-        <v>14</v>
-      </c>
-      <c r="B15" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="C15" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="D15" s="13" t="s">
-        <v>47</v>
-      </c>
-      <c r="E15" s="13" t="s">
-        <v>55</v>
+      <c r="B15" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>27</v>
       </c>
       <c r="F15" s="13" t="s">
         <v>20</v>
@@ -1276,26 +1360,118 @@
         <v>10</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="16">
+    <row r="16" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A16" s="17">
         <v>15</v>
       </c>
-      <c r="B16" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D16" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="E16" s="4" t="s">
-        <v>19</v>
+      <c r="B16" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>28</v>
       </c>
       <c r="F16" s="13" t="s">
         <v>20</v>
       </c>
       <c r="G16" s="14" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="17">
+        <v>16</v>
+      </c>
+      <c r="B17" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="C17" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="D17" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="E17" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="F17" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="G17" s="14" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="67.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="17">
+        <v>17</v>
+      </c>
+      <c r="B18" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C18" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="D18" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="E18" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="F18" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="G18" s="14" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="17">
+        <v>18</v>
+      </c>
+      <c r="B19" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="C19" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="D19" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="E19" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="F19" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="G19" s="14" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="17">
+        <v>19</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="E20" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F20" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="G20" s="14" t="s">
         <v>10</v>
       </c>
     </row>

--- a/Buyer hub/Orders/Manual testcases/New order testcases.xlsx
+++ b/Buyer hub/Orders/Manual testcases/New order testcases.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\zm-buyerautomation\Buyer hub\Orders\Manual testcases\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DA3C5DB-EF98-41AC-8F53-244F7A20C038}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80C5AA38-58BD-4454-B2B7-E6D8B3C2536A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="72">
   <si>
     <t>SL. No</t>
   </si>
@@ -437,12 +437,6 @@
     </r>
   </si>
   <si>
-    <t>It should display the New order, New recurring order and New weekly order</t>
-  </si>
-  <si>
-    <t>It gets displayed the New order, New recurring order and New weekly order</t>
-  </si>
-  <si>
     <r>
       <t xml:space="preserve">Click on the </t>
     </r>
@@ -563,6 +557,79 @@
   </si>
   <si>
     <t xml:space="preserve">It displayed Setting not Configured       </t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">It should display the </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>'New order, New recurring order and New weekly order'</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">It gets displayed the </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>New order, New recurring order and New weekly order</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Click on the </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"New recurring order"</t>
+    </r>
+  </si>
+  <si>
+    <t>1.Create recurring order pop up page                          2.Delivery to Select outlet dropdown, Order from Select supplier dropdown, Delivery on, Skip check box Public holidays, Eve of holidays check box, End date, select date, Contact person dropdown, Place order dropdown and Next Add SKU</t>
+  </si>
+  <si>
+    <t>It gets displayed the as expected</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Click on the </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"New recurring order-&gt;close"</t>
+    </r>
+  </si>
+  <si>
+    <t>Once click the Close icon it return back to All orders page</t>
   </si>
 </sst>
 </file>
@@ -664,7 +731,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -717,6 +784,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -999,10 +1069,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G20"/>
+  <dimension ref="A1:G22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="A21" sqref="A21"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="A22" sqref="A22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1098,10 +1168,10 @@
         <v>49</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>50</v>
+        <v>65</v>
       </c>
       <c r="F4" s="8" t="s">
-        <v>51</v>
+        <v>66</v>
       </c>
       <c r="G4" s="5" t="s">
         <v>10</v>
@@ -1118,13 +1188,13 @@
         <v>48</v>
       </c>
       <c r="D5" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="F5" s="8" t="s">
         <v>52</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="F5" s="8" t="s">
-        <v>54</v>
       </c>
       <c r="G5" s="5" t="s">
         <v>10</v>
@@ -1141,13 +1211,13 @@
         <v>48</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F6" s="19" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="G6" s="20" t="s">
         <v>10</v>
@@ -1164,13 +1234,13 @@
         <v>48</v>
       </c>
       <c r="D7" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="F7" s="19" t="s">
         <v>58</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="F7" s="19" t="s">
-        <v>60</v>
       </c>
       <c r="G7" s="20" t="s">
         <v>10</v>
@@ -1187,13 +1257,13 @@
         <v>48</v>
       </c>
       <c r="D8" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="F8" s="19" t="s">
         <v>61</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="F8" s="19" t="s">
-        <v>63</v>
       </c>
       <c r="G8" s="20" t="s">
         <v>10</v>
@@ -1210,13 +1280,13 @@
         <v>48</v>
       </c>
       <c r="D9" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="E9" s="21" t="s">
+        <v>63</v>
+      </c>
+      <c r="F9" s="19" t="s">
         <v>64</v>
-      </c>
-      <c r="E9" s="21" t="s">
-        <v>65</v>
-      </c>
-      <c r="F9" s="19" t="s">
-        <v>66</v>
       </c>
       <c r="G9" s="20" t="s">
         <v>10</v>
@@ -1443,7 +1513,7 @@
         <v>47</v>
       </c>
       <c r="E19" s="13" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="F19" s="13" t="s">
         <v>20</v>
@@ -1472,6 +1542,52 @@
         <v>20</v>
       </c>
       <c r="G20" s="14" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="105" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="17">
+        <v>20</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="E21" s="22" t="s">
+        <v>68</v>
+      </c>
+      <c r="F21" s="22" t="s">
+        <v>69</v>
+      </c>
+      <c r="G21" s="14" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="17">
+        <v>21</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C22" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="E22" s="22" t="s">
+        <v>71</v>
+      </c>
+      <c r="F22" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="G22" s="14" t="s">
         <v>10</v>
       </c>
     </row>

--- a/Buyer hub/Orders/Manual testcases/New order testcases.xlsx
+++ b/Buyer hub/Orders/Manual testcases/New order testcases.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25330"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\zm-buyerautomation\Buyer hub\Orders\Manual testcases\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80C5AA38-58BD-4454-B2B7-E6D8B3C2536A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27D64062-3B94-4AA2-8656-49BDA29A5B28}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="74">
   <si>
     <t>SL. No</t>
   </si>
@@ -630,6 +630,35 @@
   </si>
   <si>
     <t>Once click the Close icon it return back to All orders page</t>
+  </si>
+  <si>
+    <t>Click on the SKU</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">On click </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"Edit product"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> dialog allows user quick shortcut to edit the Price and the MOQ of particular SKU                                                                                                           1.Edit and Click Save button(Green color)</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -1069,10 +1098,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G22"/>
+  <dimension ref="A1:G23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="A22" sqref="A22"/>
+    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="A24" sqref="A24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1499,44 +1528,40 @@
         <v>10</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" ht="67.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="17">
         <v>18</v>
       </c>
-      <c r="B19" s="13" t="s">
+      <c r="B19" s="9" t="s">
         <v>11</v>
       </c>
       <c r="C19" s="12" t="s">
         <v>14</v>
       </c>
       <c r="D19" s="13" t="s">
-        <v>47</v>
+        <v>72</v>
       </c>
       <c r="E19" s="13" t="s">
-        <v>53</v>
-      </c>
-      <c r="F19" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="G19" s="14" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+        <v>73</v>
+      </c>
+      <c r="F19" s="13"/>
+      <c r="G19" s="14"/>
+    </row>
+    <row r="20" spans="1:7" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="17">
         <v>19</v>
       </c>
-      <c r="B20" s="3" t="s">
+      <c r="B20" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="C20" s="3" t="s">
+      <c r="C20" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="D20" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="E20" s="4" t="s">
-        <v>19</v>
+      <c r="D20" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="E20" s="13" t="s">
+        <v>53</v>
       </c>
       <c r="F20" s="13" t="s">
         <v>20</v>
@@ -1545,30 +1570,30 @@
         <v>10</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="105" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="17">
         <v>20</v>
       </c>
-      <c r="B21" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="C21" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="E21" s="22" t="s">
-        <v>68</v>
-      </c>
-      <c r="F21" s="22" t="s">
-        <v>69</v>
+      <c r="B21" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="E21" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F21" s="13" t="s">
+        <v>20</v>
       </c>
       <c r="G21" s="14" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" ht="105" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="17">
         <v>21</v>
       </c>
@@ -1579,15 +1604,38 @@
         <v>48</v>
       </c>
       <c r="D22" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="E22" s="22" t="s">
+        <v>68</v>
+      </c>
+      <c r="F22" s="22" t="s">
+        <v>69</v>
+      </c>
+      <c r="G22" s="14" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="17">
+        <v>22</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="D23" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="E22" s="22" t="s">
+      <c r="E23" s="22" t="s">
         <v>71</v>
       </c>
-      <c r="F22" s="13" t="s">
+      <c r="F23" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="G22" s="14" t="s">
+      <c r="G23" s="14" t="s">
         <v>10</v>
       </c>
     </row>

--- a/Buyer hub/Orders/Manual testcases/New order testcases.xlsx
+++ b/Buyer hub/Orders/Manual testcases/New order testcases.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\zm-buyerautomation\Buyer hub\Orders\Manual testcases\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27D64062-3B94-4AA2-8656-49BDA29A5B28}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12F59338-3C7F-4DB1-A110-D2C2C234E372}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="75">
   <si>
     <t>SL. No</t>
   </si>
@@ -659,6 +659,9 @@
       </rPr>
       <t xml:space="preserve"> dialog allows user quick shortcut to edit the Price and the MOQ of particular SKU                                                                                                           1.Edit and Click Save button(Green color)</t>
     </r>
+  </si>
+  <si>
+    <t>It  gets displayed the Edit product dialog box and save</t>
   </si>
 </sst>
 </file>
@@ -1100,8 +1103,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
-      <selection activeCell="A24" sqref="A24"/>
+    <sheetView tabSelected="1" topLeftCell="D16" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1544,8 +1547,12 @@
       <c r="E19" s="13" t="s">
         <v>73</v>
       </c>
-      <c r="F19" s="13"/>
-      <c r="G19" s="14"/>
+      <c r="F19" s="13" t="s">
+        <v>74</v>
+      </c>
+      <c r="G19" s="14" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="20" spans="1:7" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="17">

--- a/Buyer hub/Orders/Manual testcases/New order testcases.xlsx
+++ b/Buyer hub/Orders/Manual testcases/New order testcases.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25330"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25427"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\zm-buyerautomation\Buyer hub\Orders\Manual testcases\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12F59338-3C7F-4DB1-A110-D2C2C234E372}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4D3A705-61C7-42D0-AFFC-8D60158F5272}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -763,7 +763,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -789,15 +789,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -805,20 +801,10 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1103,7 +1089,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D16" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="E14" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
@@ -1141,53 +1127,53 @@
       </c>
     </row>
     <row r="2" spans="1:7" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="15">
+      <c r="A2" s="13">
         <v>1</v>
       </c>
-      <c r="B2" s="12" t="s">
+      <c r="B2" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="13" t="s">
+      <c r="C2" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="D2" s="13" t="s">
+      <c r="D2" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="E2" s="13" t="s">
+      <c r="E2" s="12" t="s">
         <v>8</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="G2" s="12" t="s">
+      <c r="G2" s="11" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="101.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="15">
+      <c r="A3" s="13">
         <v>2</v>
       </c>
-      <c r="B3" s="12" t="s">
+      <c r="B3" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="13" t="s">
+      <c r="C3" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="D3" s="13" t="s">
+      <c r="D3" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="E3" s="13" t="s">
+      <c r="E3" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="F3" s="12" t="s">
+      <c r="F3" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="G3" s="12" t="s">
+      <c r="G3" s="11" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="16">
+      <c r="A4" s="14">
         <v>3</v>
       </c>
       <c r="B4" s="5" t="s">
@@ -1210,7 +1196,7 @@
       </c>
     </row>
     <row r="5" spans="1:7" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="16">
+      <c r="A5" s="14">
         <v>4</v>
       </c>
       <c r="B5" s="5" t="s">
@@ -1233,7 +1219,7 @@
       </c>
     </row>
     <row r="6" spans="1:7" ht="108.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="18">
+      <c r="A6" s="15">
         <v>5</v>
       </c>
       <c r="B6" s="5" t="s">
@@ -1248,15 +1234,15 @@
       <c r="E6" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="F6" s="19" t="s">
+      <c r="F6" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="G6" s="20" t="s">
+      <c r="G6" s="3" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="60.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="18">
+      <c r="A7" s="15">
         <v>6</v>
       </c>
       <c r="B7" s="5" t="s">
@@ -1271,15 +1257,15 @@
       <c r="E7" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="F7" s="19" t="s">
+      <c r="F7" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="G7" s="20" t="s">
+      <c r="G7" s="3" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="60.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="18">
+      <c r="A8" s="15">
         <v>7</v>
       </c>
       <c r="B8" s="5" t="s">
@@ -1294,15 +1280,15 @@
       <c r="E8" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="F8" s="19" t="s">
+      <c r="F8" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="G8" s="20" t="s">
+      <c r="G8" s="3" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="87" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="18">
+      <c r="A9" s="15">
         <v>8</v>
       </c>
       <c r="B9" s="5" t="s">
@@ -1314,18 +1300,18 @@
       <c r="D9" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="E9" s="21" t="s">
+      <c r="E9" s="16" t="s">
         <v>63</v>
       </c>
-      <c r="F9" s="19" t="s">
+      <c r="F9" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="G9" s="20" t="s">
+      <c r="G9" s="3" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="15">
+      <c r="A10" s="13">
         <v>9</v>
       </c>
       <c r="B10" s="5" t="s">
@@ -1340,15 +1326,15 @@
       <c r="E10" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="F10" s="13" t="s">
+      <c r="F10" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="G10" s="12" t="s">
+      <c r="G10" s="11" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A11" s="15">
+      <c r="A11" s="13">
         <v>10</v>
       </c>
       <c r="B11" s="5" t="s">
@@ -1363,15 +1349,15 @@
       <c r="E11" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="F11" s="13" t="s">
+      <c r="F11" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="G11" s="12" t="s">
+      <c r="G11" s="11" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="17">
+      <c r="A12" s="13">
         <v>11</v>
       </c>
       <c r="B12" s="5" t="s">
@@ -1386,15 +1372,15 @@
       <c r="E12" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="F12" s="13" t="s">
+      <c r="F12" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="G12" s="14" t="s">
+      <c r="G12" s="11" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="71.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="17">
+      <c r="A13" s="13">
         <v>12</v>
       </c>
       <c r="B13" s="5" t="s">
@@ -1409,15 +1395,15 @@
       <c r="E13" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="F13" s="13" t="s">
+      <c r="F13" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="G13" s="14" t="s">
+      <c r="G13" s="11" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="57.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="17">
+      <c r="A14" s="13">
         <v>13</v>
       </c>
       <c r="B14" s="5" t="s">
@@ -1432,15 +1418,15 @@
       <c r="E14" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="F14" s="13" t="s">
+      <c r="F14" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="G14" s="14" t="s">
+      <c r="G14" s="11" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A15" s="17">
+      <c r="A15" s="13">
         <v>14</v>
       </c>
       <c r="B15" s="5" t="s">
@@ -1455,15 +1441,15 @@
       <c r="E15" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="F15" s="13" t="s">
+      <c r="F15" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="G15" s="14" t="s">
+      <c r="G15" s="11" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A16" s="17">
+      <c r="A16" s="13">
         <v>15</v>
       </c>
       <c r="B16" s="5" t="s">
@@ -1478,107 +1464,107 @@
       <c r="E16" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="F16" s="13" t="s">
+      <c r="F16" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="G16" s="14" t="s">
+      <c r="G16" s="11" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="39" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="17">
+      <c r="A17" s="13">
         <v>16</v>
       </c>
       <c r="B17" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="C17" s="11" t="s">
+      <c r="C17" t="s">
         <v>14</v>
       </c>
-      <c r="D17" s="13" t="s">
+      <c r="D17" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="E17" s="13" t="s">
+      <c r="E17" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="F17" s="13" t="s">
+      <c r="F17" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="G17" s="14" t="s">
+      <c r="G17" s="11" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="67.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="17">
+      <c r="A18" s="13">
         <v>17</v>
       </c>
       <c r="B18" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="C18" s="12" t="s">
+      <c r="C18" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="D18" s="13" t="s">
+      <c r="D18" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="E18" s="13" t="s">
+      <c r="E18" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="F18" s="13" t="s">
+      <c r="F18" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="G18" s="14" t="s">
+      <c r="G18" s="11" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="67.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="17">
+      <c r="A19" s="13">
         <v>18</v>
       </c>
       <c r="B19" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="C19" s="12" t="s">
+      <c r="C19" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="D19" s="13" t="s">
+      <c r="D19" s="12" t="s">
         <v>72</v>
       </c>
-      <c r="E19" s="13" t="s">
+      <c r="E19" s="12" t="s">
         <v>73</v>
       </c>
-      <c r="F19" s="13" t="s">
+      <c r="F19" s="12" t="s">
         <v>74</v>
       </c>
-      <c r="G19" s="14" t="s">
+      <c r="G19" s="11" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="20" spans="1:7" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="17">
+      <c r="A20" s="13">
         <v>19</v>
       </c>
-      <c r="B20" s="13" t="s">
+      <c r="B20" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="C20" s="12" t="s">
+      <c r="C20" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="D20" s="13" t="s">
+      <c r="D20" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="E20" s="13" t="s">
+      <c r="E20" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="F20" s="13" t="s">
+      <c r="F20" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="G20" s="14" t="s">
+      <c r="G20" s="11" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="21" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="17">
+      <c r="A21" s="13">
         <v>20</v>
       </c>
       <c r="B21" s="3" t="s">
@@ -1593,15 +1579,15 @@
       <c r="E21" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="F21" s="13" t="s">
+      <c r="F21" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="G21" s="14" t="s">
+      <c r="G21" s="11" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="22" spans="1:7" ht="105" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="17">
+      <c r="A22" s="13">
         <v>21</v>
       </c>
       <c r="B22" s="5" t="s">
@@ -1613,18 +1599,18 @@
       <c r="D22" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="E22" s="22" t="s">
+      <c r="E22" s="12" t="s">
         <v>68</v>
       </c>
-      <c r="F22" s="22" t="s">
+      <c r="F22" s="12" t="s">
         <v>69</v>
       </c>
-      <c r="G22" s="14" t="s">
+      <c r="G22" s="11" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="23" spans="1:7" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="17">
+      <c r="A23" s="13">
         <v>22</v>
       </c>
       <c r="B23" s="5" t="s">
@@ -1636,13 +1622,13 @@
       <c r="D23" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="E23" s="22" t="s">
+      <c r="E23" s="12" t="s">
         <v>71</v>
       </c>
-      <c r="F23" s="13" t="s">
+      <c r="F23" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="G23" s="14" t="s">
+      <c r="G23" s="11" t="s">
         <v>10</v>
       </c>
     </row>

--- a/Buyer hub/Orders/Manual testcases/New order testcases.xlsx
+++ b/Buyer hub/Orders/Manual testcases/New order testcases.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25427"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25601"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\zm-buyerautomation\Buyer hub\Orders\Manual testcases\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4D3A705-61C7-42D0-AFFC-8D60158F5272}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31F54FEC-544F-4DBE-8A94-297A46A46012}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="77">
   <si>
     <t>SL. No</t>
   </si>
@@ -662,6 +662,56 @@
   </si>
   <si>
     <t>It  gets displayed the Edit product dialog box and save</t>
+  </si>
+  <si>
+    <t>SKU -&gt; Review order (new)</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">There is an </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"Export"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> button at the top of the draft page, near the </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"Delete draft"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> button. On click, generate an Excel file</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -763,7 +813,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -805,6 +855,9 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1087,10 +1140,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G23"/>
+  <dimension ref="A1:G24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E14" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G20" sqref="G20"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A24" sqref="A24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1563,53 +1616,49 @@
         <v>10</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="13">
         <v>20</v>
       </c>
-      <c r="B21" s="3" t="s">
+      <c r="B21" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="C21" s="3" t="s">
+      <c r="C21" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="D21" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="E21" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="F21" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="G21" s="11" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" ht="105" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D21" s="17" t="s">
+        <v>75</v>
+      </c>
+      <c r="E21" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="F21" s="12"/>
+      <c r="G21" s="11"/>
+    </row>
+    <row r="22" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="13">
         <v>21</v>
       </c>
-      <c r="B22" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="C22" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="D22" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="E22" s="12" t="s">
-        <v>68</v>
+      <c r="B22" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D22" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="E22" s="4" t="s">
+        <v>19</v>
       </c>
       <c r="F22" s="12" t="s">
-        <v>69</v>
+        <v>20</v>
       </c>
       <c r="G22" s="11" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="23" spans="1:7" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" ht="105" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="13">
         <v>22</v>
       </c>
@@ -1620,15 +1669,38 @@
         <v>48</v>
       </c>
       <c r="D23" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="E23" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="F23" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="G23" s="11" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="13">
+        <v>23</v>
+      </c>
+      <c r="B24" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C24" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="D24" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="E23" s="12" t="s">
+      <c r="E24" s="12" t="s">
         <v>71</v>
       </c>
-      <c r="F23" s="12" t="s">
+      <c r="F24" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="G23" s="11" t="s">
+      <c r="G24" s="11" t="s">
         <v>10</v>
       </c>
     </row>

--- a/Buyer hub/Orders/Manual testcases/New order testcases.xlsx
+++ b/Buyer hub/Orders/Manual testcases/New order testcases.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25831"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\zm-buyerautomation\Buyer hub\Orders\Manual testcases\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31F54FEC-544F-4DBE-8A94-297A46A46012}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1782995E-0271-4962-B35D-2D421550DF67}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="83">
   <si>
     <t>SL. No</t>
   </si>
@@ -73,9 +73,6 @@
   </si>
   <si>
     <t>Need to click the check box ,If we click the check box then it displayed to the Only Favourites SKUs</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.Click the Check box (tick) ,then it shows only 'Favourites 'SKUs                                                                                                                                  2.In the favourites icon will be 'Heart icon'   and Heart symbol is in Blue colour                                                                                            </t>
   </si>
   <si>
     <t>If we tick then its only Favourites displayed  or untick then it displayed both SKUs and Colour is Blue colour</t>
@@ -332,32 +329,6 @@
   </si>
   <si>
     <r>
-      <t xml:space="preserve">On the Outlet screen,Top right corner </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>"Show Favourites only"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> and Check box </t>
-    </r>
-  </si>
-  <si>
-    <r>
       <t xml:space="preserve">Click the </t>
     </r>
     <r>
@@ -457,32 +428,6 @@
   </si>
   <si>
     <t>As expected</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Once you click the </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Review order</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> then its show the Review order page on the screen </t>
-    </r>
   </si>
   <si>
     <t>Reason for disabling ordering currently showing as 'Currently unavailable' in supplier ,now new implementation as 3 options                                                     1.Payment outstanding                                                                 2.Order setting unverified                                                              3.Setting not Configured</t>
@@ -607,9 +552,6 @@
     </r>
   </si>
   <si>
-    <t>1.Create recurring order pop up page                          2.Delivery to Select outlet dropdown, Order from Select supplier dropdown, Delivery on, Skip check box Public holidays, Eve of holidays check box, End date, select date, Contact person dropdown, Place order dropdown and Next Add SKU</t>
-  </si>
-  <si>
     <t>It gets displayed the as expected</t>
   </si>
   <si>
@@ -632,9 +574,6 @@
     <t>Once click the Close icon it return back to All orders page</t>
   </si>
   <si>
-    <t>Click on the SKU</t>
-  </si>
-  <si>
     <r>
       <t xml:space="preserve">On click </t>
     </r>
@@ -664,7 +603,326 @@
     <t>It  gets displayed the Edit product dialog box and save</t>
   </si>
   <si>
-    <t>SKU -&gt; Review order (new)</t>
+    <r>
+      <t xml:space="preserve">Click on the </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"New order &gt; Select supplier (Without POS)</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">1.Click the Check box of Show Favorites only (tick) ,then it shows only 'Favourites 'SKUs                                                                                                                                  2.In the favourites icon will be 'Heart icon'   and Heart symbol is in Blue colour                                                                                            </t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">On the Outlet screen,Top left next to search box corner </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"Show Favourites only"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> and Check box </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Click on the SKU&gt; </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Unit price</t>
+    </r>
+  </si>
+  <si>
+    <t>It gets displayed can edit Quantity, Unit price and click Review order or Click the Delete icon to close</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Click on the </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"New order &gt; Select supplier (With POS)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Supplier below no description,here can see </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"Par"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> values                                                                                                               *If outlet has not set up inventory, we’ll completely hide this </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>“Par”</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> column.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Supplier below show alert if X items below par description,here can see "Par" values                                                                                                     1.Two new filters at the top of the list:</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> "Items below par"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> and </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"Show stock on hand"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> and New column for </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"Par"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">                                      2.There is also a button next to </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"Quantity"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> column header to </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"fill all to par"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>. This will automatically input the ‘fill to par’ quantity for all "below par" items.                                                                                             3.Once click the</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 'Items below par'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> it shows list  of Unit price                    4.</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Show stock on hand</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> checkbox : Unit price column will change to </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>'On hand'</t>
+    </r>
+  </si>
+  <si>
+    <t>1.Create recurring order pop up page                                                                         2.Delivery to Select outlet dropdown, Order from Select supplier dropdown, Delivery on, Skip check box Public holidays, Eve of holidays check box, End date, select date, Contact person dropdown, Place order dropdown and Next Add SKU</t>
+  </si>
+  <si>
+    <t>Draft order &gt; SKU -&gt; Review order (new)</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Once you click the </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Review order</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> then its show the Review order page on the screen it shows Cancel, Save as draft and Place Order</t>
+    </r>
   </si>
   <si>
     <r>
@@ -710,7 +968,65 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> button. On click, generate an Excel file</t>
+      <t xml:space="preserve"> button. On click, generate an Excel file                                   *Description, Quantity : </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"Fill all to par"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> button above the list of the items, next to the </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"Quantity"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> column header. </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>On tap Fill all to par : show a confirmation step. When user confirms this step, we will                                                                                   *Replace the quantity of those items in the draft with the “fill to par” qty regardless of the current qty in draft (even if the existing qty in draft is more than the “fill to par” qty).                                                * If there are no items in the draft that can use this feature, show an alert as</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 'No items to fill to par' and OK</t>
     </r>
   </si>
 </sst>
@@ -813,7 +1129,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -859,6 +1175,12 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1140,10 +1462,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G24"/>
+  <dimension ref="A1:G27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A24" sqref="A24"/>
+    <sheetView tabSelected="1" topLeftCell="C6" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A28" sqref="A28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1152,7 +1474,7 @@
     <col min="2" max="2" width="26.5703125" customWidth="1"/>
     <col min="3" max="3" width="36.42578125" customWidth="1"/>
     <col min="4" max="4" width="49.140625" customWidth="1"/>
-    <col min="5" max="5" width="48.5703125" customWidth="1"/>
+    <col min="5" max="5" width="58.5703125" customWidth="1"/>
     <col min="6" max="6" width="45.28515625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1187,10 +1509,10 @@
         <v>7</v>
       </c>
       <c r="C2" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="D2" s="12" t="s">
         <v>33</v>
-      </c>
-      <c r="D2" s="12" t="s">
-        <v>34</v>
       </c>
       <c r="E2" s="12" t="s">
         <v>8</v>
@@ -1213,7 +1535,7 @@
         <v>11</v>
       </c>
       <c r="D3" s="12" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E3" s="12" t="s">
         <v>12</v>
@@ -1230,19 +1552,19 @@
         <v>3</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="F4" s="8" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="G4" s="5" t="s">
         <v>10</v>
@@ -1253,19 +1575,19 @@
         <v>4</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C5" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="D5" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="E5" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="F5" s="8" t="s">
         <v>50</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="F5" s="8" t="s">
-        <v>52</v>
       </c>
       <c r="G5" s="5" t="s">
         <v>10</v>
@@ -1276,19 +1598,19 @@
         <v>5</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C6" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="D6" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="D6" s="2" t="s">
-        <v>50</v>
-      </c>
       <c r="E6" s="2" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="G6" s="3" t="s">
         <v>10</v>
@@ -1299,19 +1621,19 @@
         <v>6</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="G7" s="3" t="s">
         <v>10</v>
@@ -1322,19 +1644,19 @@
         <v>7</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="G8" s="3" t="s">
         <v>10</v>
@@ -1345,19 +1667,19 @@
         <v>8</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="E9" s="16" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="G9" s="3" t="s">
         <v>10</v>
@@ -1368,19 +1690,19 @@
         <v>9</v>
       </c>
       <c r="B10" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C10" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="C10" s="5" t="s">
+      <c r="D10" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="F10" s="12" t="s">
         <v>22</v>
-      </c>
-      <c r="D10" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="E10" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="F10" s="12" t="s">
-        <v>23</v>
       </c>
       <c r="G10" s="11" t="s">
         <v>10</v>
@@ -1391,19 +1713,19 @@
         <v>10</v>
       </c>
       <c r="B11" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C11" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="C11" s="5" t="s">
+      <c r="D11" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="F11" s="12" t="s">
         <v>22</v>
-      </c>
-      <c r="D11" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="E11" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="F11" s="12" t="s">
-        <v>23</v>
       </c>
       <c r="G11" s="11" t="s">
         <v>10</v>
@@ -1414,19 +1736,19 @@
         <v>11</v>
       </c>
       <c r="B12" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C12" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="C12" s="5" t="s">
-        <v>22</v>
-      </c>
       <c r="D12" s="6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F12" s="12" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G12" s="11" t="s">
         <v>10</v>
@@ -1437,19 +1759,19 @@
         <v>12</v>
       </c>
       <c r="B13" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C13" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="C13" s="5" t="s">
-        <v>22</v>
-      </c>
       <c r="D13" s="6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F13" s="12" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G13" s="11" t="s">
         <v>10</v>
@@ -1460,19 +1782,19 @@
         <v>13</v>
       </c>
       <c r="B14" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C14" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="C14" s="5" t="s">
-        <v>22</v>
-      </c>
       <c r="D14" s="6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F14" s="12" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G14" s="11" t="s">
         <v>10</v>
@@ -1483,19 +1805,19 @@
         <v>14</v>
       </c>
       <c r="B15" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C15" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="C15" s="5" t="s">
-        <v>22</v>
-      </c>
       <c r="D15" s="6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F15" s="12" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G15" s="11" t="s">
         <v>10</v>
@@ -1506,201 +1828,262 @@
         <v>15</v>
       </c>
       <c r="B16" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C16" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="C16" s="5" t="s">
-        <v>22</v>
-      </c>
       <c r="D16" s="6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F16" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="G16" s="11" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="79.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="18">
+        <v>16</v>
+      </c>
+      <c r="B17" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="G16" s="11" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" ht="39" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="13">
-        <v>16</v>
-      </c>
-      <c r="B17" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="C17" t="s">
-        <v>14</v>
-      </c>
-      <c r="D17" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="E17" s="12" t="s">
-        <v>15</v>
+      <c r="C17" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>76</v>
       </c>
       <c r="F17" s="12" t="s">
-        <v>32</v>
+        <v>74</v>
       </c>
       <c r="G17" s="11" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="67.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7" ht="157.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="13">
         <v>17</v>
       </c>
-      <c r="B18" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="C18" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="D18" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="E18" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="F18" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="G18" s="11" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" ht="67.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B18" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="E18" s="19" t="s">
+        <v>77</v>
+      </c>
+      <c r="F18" s="12"/>
+      <c r="G18" s="11"/>
+    </row>
+    <row r="19" spans="1:7" ht="48" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="13">
         <v>18</v>
       </c>
-      <c r="B19" s="9" t="s">
+      <c r="B19" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="C19" s="11" t="s">
+      <c r="C19" t="s">
         <v>14</v>
       </c>
       <c r="D19" s="12" t="s">
         <v>72</v>
       </c>
       <c r="E19" s="12" t="s">
-        <v>73</v>
+        <v>15</v>
       </c>
       <c r="F19" s="12" t="s">
-        <v>74</v>
+        <v>31</v>
       </c>
       <c r="G19" s="11" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" ht="67.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="13">
         <v>19</v>
       </c>
-      <c r="B20" s="12" t="s">
+      <c r="B20" s="9" t="s">
         <v>11</v>
       </c>
       <c r="C20" s="11" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="12" t="s">
-        <v>47</v>
+        <v>71</v>
       </c>
       <c r="E20" s="12" t="s">
-        <v>53</v>
+        <v>16</v>
       </c>
       <c r="F20" s="12" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="G20" s="11" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" ht="67.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="13">
         <v>20</v>
       </c>
-      <c r="B21" s="12" t="s">
+      <c r="B21" s="9" t="s">
         <v>11</v>
       </c>
       <c r="C21" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="D21" s="17" t="s">
-        <v>75</v>
+      <c r="D21" s="12" t="s">
+        <v>73</v>
       </c>
       <c r="E21" s="12" t="s">
-        <v>76</v>
-      </c>
-      <c r="F21" s="12"/>
-      <c r="G21" s="11"/>
-    </row>
-    <row r="22" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+        <v>68</v>
+      </c>
+      <c r="F21" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="G21" s="11" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="13">
         <v>21</v>
       </c>
-      <c r="B22" s="3" t="s">
+      <c r="B22" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="C22" s="3" t="s">
+      <c r="C22" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="D22" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="E22" s="4" t="s">
+      <c r="D22" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="E22" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="F22" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="F22" s="12" t="s">
-        <v>20</v>
-      </c>
       <c r="G22" s="11" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="23" spans="1:7" ht="105" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" ht="81.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="13">
         <v>22</v>
       </c>
-      <c r="B23" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="C23" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="D23" s="2" t="s">
-        <v>67</v>
+      <c r="B23" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="C23" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="D23" s="17" t="s">
+        <v>79</v>
       </c>
       <c r="E23" s="12" t="s">
-        <v>68</v>
-      </c>
-      <c r="F23" s="12" t="s">
-        <v>69</v>
-      </c>
-      <c r="G23" s="11" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>81</v>
+      </c>
+      <c r="F23" s="12"/>
+      <c r="G23" s="11"/>
+    </row>
+    <row r="24" spans="1:7" ht="127.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="13">
         <v>23</v>
       </c>
-      <c r="B24" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="C24" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="D24" s="2" t="s">
-        <v>70</v>
+      <c r="B24" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="C24" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="D24" s="17" t="s">
+        <v>79</v>
       </c>
       <c r="E24" s="12" t="s">
-        <v>71</v>
-      </c>
-      <c r="F24" s="12" t="s">
+        <v>82</v>
+      </c>
+      <c r="F24" s="12"/>
+      <c r="G24" s="11"/>
+    </row>
+    <row r="25" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="13">
+        <v>24</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D25" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="E25" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F25" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="G25" s="11" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" ht="105" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="13">
+        <v>25</v>
+      </c>
+      <c r="B26" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="G24" s="11" t="s">
+      <c r="C26" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="E26" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="F26" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="G26" s="11" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="13">
+        <v>26</v>
+      </c>
+      <c r="B27" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C27" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="E27" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="F27" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="G27" s="11" t="s">
         <v>10</v>
       </c>
     </row>

--- a/Buyer hub/Orders/Manual testcases/New order testcases.xlsx
+++ b/Buyer hub/Orders/Manual testcases/New order testcases.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25831"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26026"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\zm-buyerautomation\Buyer hub\Orders\Manual testcases\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Sprint124\zm-buyerautomation\Buyer hub\Orders\Manual testcases\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1782995E-0271-4962-B35D-2D421550DF67}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23263287-833F-4F72-90B5-DE9C71BEFEA8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="86">
   <si>
     <t>SL. No</t>
   </si>
@@ -430,9 +430,6 @@
     <t>As expected</t>
   </si>
   <si>
-    <t>Reason for disabling ordering currently showing as 'Currently unavailable' in supplier ,now new implementation as 3 options                                                     1.Payment outstanding                                                                 2.Order setting unverified                                                              3.Setting not Configured</t>
-  </si>
-  <si>
     <t xml:space="preserve">In admin select supplier and manage settings if we select those options aand update then it gets displayed in the buyer </t>
   </si>
   <si>
@@ -497,200 +494,414 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">"Currently unavailable - Setting not Configured               the message is just an info that another user from the outlet with permission has to verify the supplier settings first.
+    <t xml:space="preserve">It displayed Setting not Configured       </t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">It should display the </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>'New order, New recurring order and New weekly order'</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">It gets displayed the </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>New order, New recurring order and New weekly order</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Click on the </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"New recurring order"</t>
+    </r>
+  </si>
+  <si>
+    <t>It gets displayed the as expected</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Click on the </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"New recurring order-&gt;close"</t>
+    </r>
+  </si>
+  <si>
+    <t>Once click the Close icon it return back to All orders page</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">On click </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"Edit product"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> dialog allows user quick shortcut to edit the Price and the MOQ of particular SKU                                                                                                           1.Edit and Click Save button(Green color)</t>
+    </r>
+  </si>
+  <si>
+    <t>It  gets displayed the Edit product dialog box and save</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Click on the </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"New order &gt; Select supplier (Without POS)</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">1.Click the Check box of Show Favorites only (tick) ,then it shows only 'Favourites 'SKUs                                                                                                                                  2.In the favourites icon will be 'Heart icon'   and Heart symbol is in Blue colour                                                                                            </t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">On the Outlet screen,Top left next to search box corner </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"Show Favourites only"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> and Check box </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Click on the SKU&gt; </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Unit price</t>
+    </r>
+  </si>
+  <si>
+    <t>It gets displayed can edit Quantity, Unit price and click Review order or Click the Delete icon to close</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Click on the </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"New order &gt; Select supplier (With POS)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Supplier below no description,here can see </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"Par"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> values                                                                                                               *If outlet has not set up inventory, we’ll completely hide this </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>“Par”</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> column.</t>
+    </r>
+  </si>
+  <si>
+    <t>1.Create recurring order pop up page                                                                         2.Delivery to Select outlet dropdown, Order from Select supplier dropdown, Delivery on, Skip check box Public holidays, Eve of holidays check box, End date, select date, Contact person dropdown, Place order dropdown and Next Add SKU</t>
+  </si>
+  <si>
+    <t>Draft order &gt; SKU -&gt; Review order (new)</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Once you click the </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Review order</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> then its show the Review order page on the screen it shows Cancel, Save as draft and Place Order</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">There is an </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"Export"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> button at the top of the draft page, near the </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"Delete draft"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> button. On click, generate an Excel file                                   *Description, Quantity : </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"Fill all to par"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> button above the list of the items, next to the </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"Quantity"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> column header. </t>
+    </r>
+  </si>
+  <si>
+    <t>Reason for disabling ordering currently showing as 'Currently unavailable' in supplier ,now new implementation as 3 options                                                     1.Payment outstanding                                                                                        2.Order setting unverified                                                   
+3.Setting not Configured</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"Currently unavailable - Setting not Configured the message is just an info that another user from the outlet with permission has to verify the supplier settings first.
 </t>
   </si>
   <si>
-    <t xml:space="preserve">It displayed Setting not Configured       </t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">It should display the </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>'New order, New recurring order and New weekly order'</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">It gets displayed the </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>New order, New recurring order and New weekly order</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Click on the </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>"New recurring order"</t>
-    </r>
-  </si>
-  <si>
-    <t>It gets displayed the as expected</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Click on the </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>"New recurring order-&gt;close"</t>
-    </r>
-  </si>
-  <si>
-    <t>Once click the Close icon it return back to All orders page</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">On click </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>"Edit product"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> dialog allows user quick shortcut to edit the Price and the MOQ of particular SKU                                                                                                           1.Edit and Click Save button(Green color)</t>
-    </r>
-  </si>
-  <si>
-    <t>It  gets displayed the Edit product dialog box and save</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Click on the </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>"New order &gt; Select supplier (Without POS)</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">1.Click the Check box of Show Favorites only (tick) ,then it shows only 'Favourites 'SKUs                                                                                                                                  2.In the favourites icon will be 'Heart icon'   and Heart symbol is in Blue colour                                                                                            </t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">On the Outlet screen,Top left next to search box corner </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>"Show Favourites only"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> and Check box </t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Click on the SKU&gt; </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Unit price</t>
-    </r>
-  </si>
-  <si>
-    <t>It gets displayed can edit Quantity, Unit price and click Review order or Click the Delete icon to close</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Click on the </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>"New order &gt; Select supplier (With POS)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Supplier below no description,here can see </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
+    <r>
+      <t>Supplier below show alert if X items below par description,here can see "Par" values                                                                                                     1.Two new filters at the top of the list:</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> "Items below par"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> and </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"Show stock on hand"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> and New column for </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
@@ -700,95 +911,6 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> values                                                                                                               *If outlet has not set up inventory, we’ll completely hide this </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>“Par”</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> column.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Supplier below show alert if X items below par description,here can see "Par" values                                                                                                     1.Two new filters at the top of the list:</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> "Items below par"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> and </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>"Show stock on hand"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> and New column for </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>"Par"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
         <family val="2"/>
@@ -878,7 +1000,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> checkbox : Unit price column will change to </t>
+      <t xml:space="preserve"> checkbox : Unit price column will become to </t>
     </r>
     <r>
       <rPr>
@@ -893,129 +1015,11 @@
     </r>
   </si>
   <si>
-    <t>1.Create recurring order pop up page                                                                         2.Delivery to Select outlet dropdown, Order from Select supplier dropdown, Delivery on, Skip check box Public holidays, Eve of holidays check box, End date, select date, Contact person dropdown, Place order dropdown and Next Add SKU</t>
-  </si>
-  <si>
-    <t>Draft order &gt; SKU -&gt; Review order (new)</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Once you click the </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Review order</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> then its show the Review order page on the screen it shows Cancel, Save as draft and Place Order</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">There is an </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>"Export"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> button at the top of the draft page, near the </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>"Delete draft"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> button. On click, generate an Excel file                                   *Description, Quantity : </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>"Fill all to par"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> button above the list of the items, next to the </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>"Quantity"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> column header. </t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>On tap Fill all to par : show a confirmation step. When user confirms this step, we will                                                                                   *Replace the quantity of those items in the draft with the “fill to par” qty regardless of the current qty in draft (even if the existing qty in draft is more than the “fill to par” qty).                                                * If there are no items in the draft that can use this feature, show an alert as</t>
+    <t xml:space="preserve">Once enter and Hit the Review order,page will redirecting to Review order screen </t>
+  </si>
+  <si>
+    <r>
+      <t>On tap Fill all to par : show a confirmation step. When user confirms this step, we will                                                                                   *Replace the quantity of those items in the draft with the “fill to par” qty regardless of the current qty in draft (even if the existing qty in draft is more than the “fill to par” qty).                                                                        * If there are no items in the draft that can use this feature, show an alert as</t>
     </r>
     <r>
       <rPr>
@@ -1028,6 +1032,12 @@
       </rPr>
       <t xml:space="preserve"> 'No items to fill to par' and OK</t>
     </r>
+  </si>
+  <si>
+    <t>Once click the Delete draft, Toastr will be "Draft Order deleted successfully "</t>
+  </si>
+  <si>
+    <t>It gets displayed as expected</t>
   </si>
 </sst>
 </file>
@@ -1129,7 +1139,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1175,12 +1185,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1464,21 +1468,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C6" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A28" sqref="A28"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="6.85546875" customWidth="1"/>
-    <col min="2" max="2" width="26.5703125" customWidth="1"/>
-    <col min="3" max="3" width="36.42578125" customWidth="1"/>
-    <col min="4" max="4" width="49.140625" customWidth="1"/>
-    <col min="5" max="5" width="58.5703125" customWidth="1"/>
-    <col min="6" max="6" width="45.28515625" customWidth="1"/>
+    <col min="1" max="1" width="6.81640625" customWidth="1"/>
+    <col min="2" max="2" width="26.54296875" customWidth="1"/>
+    <col min="3" max="3" width="36.453125" customWidth="1"/>
+    <col min="4" max="4" width="49.1796875" customWidth="1"/>
+    <col min="5" max="5" width="58.54296875" customWidth="1"/>
+    <col min="6" max="6" width="45.26953125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1501,7 +1505,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" ht="41.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="13">
         <v>1</v>
       </c>
@@ -1524,7 +1528,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="101.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" ht="101.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="13">
         <v>2</v>
       </c>
@@ -1547,7 +1551,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" ht="38.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="14">
         <v>3</v>
       </c>
@@ -1561,16 +1565,16 @@
         <v>47</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="F4" s="8" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="G4" s="5" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" ht="47.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="14">
         <v>4</v>
       </c>
@@ -1593,7 +1597,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="108.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" ht="108.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="15">
         <v>5</v>
       </c>
@@ -1607,16 +1611,16 @@
         <v>48</v>
       </c>
       <c r="E6" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="F6" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="F6" s="4" t="s">
-        <v>52</v>
-      </c>
       <c r="G6" s="3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="60.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" ht="60.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="15">
         <v>6</v>
       </c>
@@ -1627,19 +1631,19 @@
         <v>46</v>
       </c>
       <c r="D7" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="E7" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="E7" s="2" t="s">
+      <c r="F7" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="F7" s="4" t="s">
-        <v>55</v>
-      </c>
       <c r="G7" s="3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="60.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" ht="60.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="15">
         <v>7</v>
       </c>
@@ -1650,19 +1654,19 @@
         <v>46</v>
       </c>
       <c r="D8" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="E8" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="E8" s="2" t="s">
+      <c r="F8" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="F8" s="4" t="s">
-        <v>58</v>
-      </c>
       <c r="G8" s="3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="87" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" ht="87" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="15">
         <v>8</v>
       </c>
@@ -1673,19 +1677,19 @@
         <v>46</v>
       </c>
       <c r="D9" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="E9" s="16" t="s">
+        <v>80</v>
+      </c>
+      <c r="F9" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="E9" s="16" t="s">
-        <v>60</v>
-      </c>
-      <c r="F9" s="4" t="s">
-        <v>61</v>
-      </c>
       <c r="G9" s="3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" ht="42" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="13">
         <v>9</v>
       </c>
@@ -1708,7 +1712,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" ht="30.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="13">
         <v>10</v>
       </c>
@@ -1731,7 +1735,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="13">
         <v>11</v>
       </c>
@@ -1754,7 +1758,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="71.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" ht="71.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="13">
         <v>12</v>
       </c>
@@ -1777,7 +1781,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="57.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" ht="57.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="13">
         <v>13</v>
       </c>
@@ -1800,7 +1804,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" ht="34" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="13">
         <v>14</v>
       </c>
@@ -1823,7 +1827,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" ht="35.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="13">
         <v>15</v>
       </c>
@@ -1846,8 +1850,8 @@
         <v>10</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="79.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="18">
+    <row r="17" spans="1:7" ht="79.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="15">
         <v>16</v>
       </c>
       <c r="B17" s="5" t="s">
@@ -1857,19 +1861,19 @@
         <v>46</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="F17" s="12" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="G17" s="11" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="157.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" ht="157.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="13">
         <v>17</v>
       </c>
@@ -1880,15 +1884,19 @@
         <v>46</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="E18" s="19" t="s">
-        <v>77</v>
-      </c>
-      <c r="F18" s="12"/>
-      <c r="G18" s="11"/>
-    </row>
-    <row r="19" spans="1:7" ht="48" customHeight="1" x14ac:dyDescent="0.25">
+        <v>73</v>
+      </c>
+      <c r="E18" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="F18" s="12" t="s">
+        <v>82</v>
+      </c>
+      <c r="G18" s="11" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="48" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="13">
         <v>18</v>
       </c>
@@ -1899,7 +1907,7 @@
         <v>14</v>
       </c>
       <c r="D19" s="12" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="E19" s="12" t="s">
         <v>15</v>
@@ -1911,7 +1919,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="67.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:7" ht="67.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A20" s="13">
         <v>19</v>
       </c>
@@ -1922,7 +1930,7 @@
         <v>14</v>
       </c>
       <c r="D20" s="12" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="E20" s="12" t="s">
         <v>16</v>
@@ -1934,7 +1942,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="67.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:7" ht="67.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A21" s="13">
         <v>20</v>
       </c>
@@ -1945,19 +1953,19 @@
         <v>14</v>
       </c>
       <c r="D21" s="12" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="E21" s="12" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="F21" s="12" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="G21" s="11" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" ht="36.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="13">
         <v>21</v>
       </c>
@@ -1971,7 +1979,7 @@
         <v>45</v>
       </c>
       <c r="E22" s="12" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="F22" s="12" t="s">
         <v>19</v>
@@ -1980,7 +1988,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="23" spans="1:7" ht="81.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" ht="81.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A23" s="13">
         <v>22</v>
       </c>
@@ -1991,15 +1999,19 @@
         <v>14</v>
       </c>
       <c r="D23" s="17" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="E23" s="12" t="s">
-        <v>81</v>
-      </c>
-      <c r="F23" s="12"/>
-      <c r="G23" s="11"/>
-    </row>
-    <row r="24" spans="1:7" ht="127.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>78</v>
+      </c>
+      <c r="F23" s="12" t="s">
+        <v>84</v>
+      </c>
+      <c r="G23" s="11" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="127.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24" s="13">
         <v>23</v>
       </c>
@@ -2010,15 +2022,19 @@
         <v>14</v>
       </c>
       <c r="D24" s="17" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="E24" s="12" t="s">
-        <v>82</v>
-      </c>
-      <c r="F24" s="12"/>
-      <c r="G24" s="11"/>
-    </row>
-    <row r="25" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+        <v>83</v>
+      </c>
+      <c r="F24" s="12" t="s">
+        <v>85</v>
+      </c>
+      <c r="G24" s="11" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A25" s="13">
         <v>24</v>
       </c>
@@ -2041,7 +2057,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="26" spans="1:7" ht="105" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" ht="105" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A26" s="13">
         <v>25</v>
       </c>
@@ -2052,19 +2068,19 @@
         <v>46</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="E26" s="12" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="F26" s="12" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="G26" s="11" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="27" spans="1:7" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" ht="41.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A27" s="13">
         <v>26</v>
       </c>
@@ -2075,10 +2091,10 @@
         <v>46</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E27" s="12" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="F27" s="12" t="s">
         <v>19</v>
